--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="9288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="wiki" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="372">
   <si>
     <t>Afrikaans</t>
   </si>
@@ -172,13 +172,1013 @@
   </si>
   <si>
     <t>iw</t>
+  </si>
+  <si>
+    <t>Abkhazian</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Afar</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Akan</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>Aragonese</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>Assamese</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Avaric</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>Avestan</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>Aymara</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>Bambara</t>
+  </si>
+  <si>
+    <t>bm</t>
+  </si>
+  <si>
+    <t>Bashkir</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>Belarusian</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>Bislama</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>Bosnian</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>Breton</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>Catalan, Valencian</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>Chamorro</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>Chechen</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>Chichewa, Chewa, Nyanja</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>Chuvash</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>Cornish</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>Corsican</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>Divehi, Dhivehi, Maldivian</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <r>
+      <t>Dutch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0645AD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Flemish</t>
+    </r>
+  </si>
+  <si>
+    <t>Dzongkha</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>Esperanto</t>
+  </si>
+  <si>
+    <t>eo</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>Ewe</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>Faroese</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>Fijian</t>
+  </si>
+  <si>
+    <t>fj</t>
+  </si>
+  <si>
+    <t>Fulah</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>Galician</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>Greek, Modern (1453–)</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>Haitian, Haitian Creole</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>Hausa</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Herero</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>Hiri Motu</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>Interlingua (International Auxiliary Language Association)</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Interlingue, Occidental</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>Igbo</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>Inupiaq</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>Ido</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Inuktitut</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>Javanese</t>
+  </si>
+  <si>
+    <t>jv</t>
+  </si>
+  <si>
+    <t>Kalaallisut, Greenlandic</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>Kanuri</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>Kashmiri</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>Central Khmer</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Kikuyu, Gikuyu</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>Kinyarwanda</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>Kirghiz, Kyrgyz</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>Komi</t>
+  </si>
+  <si>
+    <t>kv</t>
+  </si>
+  <si>
+    <t>Kongo</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>Kurdish</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>Kuanyama, Kwanyama</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Luxembourgish, Letzeburgesch</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Ganda</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>Limburgan, Limburger, Limburgish</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>Lingala</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Luba-Katanga</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>Manx</t>
+  </si>
+  <si>
+    <t>gv</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Maori</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>Marshallese</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Navajo, Navaho</t>
+  </si>
+  <si>
+    <t>nv</t>
+  </si>
+  <si>
+    <t>North Ndebele</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>Ndonga</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>Norwegian Bokmål</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>Norwegian Nynorsk</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Sichuan Yi, Nuosu</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>South Ndebele</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>Occitan</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>Ojibwa</t>
+  </si>
+  <si>
+    <t>oj</t>
+  </si>
+  <si>
+    <r>
+      <t>Church Slavic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Old Slavonic, Church Slavonic, Old Bulgarian, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0645AD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Old Church Slavonic</t>
+    </r>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>Oromo</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>Oriya</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Ossetian, Ossetic</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>Punjabi, Panjabi</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>Pali</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>Pashto, Pushto</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Quechua</t>
+  </si>
+  <si>
+    <t>qu</t>
+  </si>
+  <si>
+    <t>Romansh</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>Rundi</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>Romanian, Moldavian, Moldovan</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Sardinian</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Sindhi</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Northern Sami</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Samoan</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>Sango</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>Gaelic, Scottish Gaelic</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>Shona</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>Sinhala, Sinhalese</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>Southern Sotho</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>Spanish, Castilian</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Sundanese</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>Tajik</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>Tigrinya</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>Tibetan</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>Turkmen</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>Tswana</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>Tonga (Tonga Islands)</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Tsonga</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>Tatar</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>Twi</t>
+  </si>
+  <si>
+    <t>tw</t>
+  </si>
+  <si>
+    <t>Tahitian</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>Uighur, Uyghur</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>Volapük</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>Walloon</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>Wolof</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>Western Frisian</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>Xhosa</t>
+  </si>
+  <si>
+    <t>xh</t>
+  </si>
+  <si>
+    <t>Yiddish</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>Zhuang, Chuang</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,16 +1199,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0645AD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -231,19 +1257,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -975,13 +2066,1866 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Abkhazian language" display="https://en.wikipedia.org/wiki/Abkhazian_language"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ab"/>
+    <hyperlink ref="A3" r:id="rId3" tooltip="Afar language" display="https://en.wikipedia.org/wiki/Afar_language"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=aa"/>
+    <hyperlink ref="A4" r:id="rId5" tooltip="Afrikaans language" display="https://en.wikipedia.org/wiki/Afrikaans_language"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=af"/>
+    <hyperlink ref="A5" r:id="rId7" tooltip="Akan language" display="https://en.wikipedia.org/wiki/Akan_language"/>
+    <hyperlink ref="B5" r:id="rId8" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ak"/>
+    <hyperlink ref="A6" r:id="rId9" tooltip="Albanian language" display="https://en.wikipedia.org/wiki/Albanian_language"/>
+    <hyperlink ref="B6" r:id="rId10" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sq"/>
+    <hyperlink ref="A7" r:id="rId11" tooltip="Amharic language" display="https://en.wikipedia.org/wiki/Amharic_language"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=am"/>
+    <hyperlink ref="A8" r:id="rId13" tooltip="Arabic language" display="https://en.wikipedia.org/wiki/Arabic_language"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ar"/>
+    <hyperlink ref="A9" r:id="rId15" tooltip="Aragonese language" display="https://en.wikipedia.org/wiki/Aragonese_language"/>
+    <hyperlink ref="B9" r:id="rId16" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=an"/>
+    <hyperlink ref="A10" r:id="rId17" tooltip="Armenian language" display="https://en.wikipedia.org/wiki/Armenian_language"/>
+    <hyperlink ref="B10" r:id="rId18" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=hy"/>
+    <hyperlink ref="A11" r:id="rId19" tooltip="Assamese language" display="https://en.wikipedia.org/wiki/Assamese_language"/>
+    <hyperlink ref="B11" r:id="rId20" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=as"/>
+    <hyperlink ref="A12" r:id="rId21" tooltip="Avar language" display="https://en.wikipedia.org/wiki/Avar_language"/>
+    <hyperlink ref="B12" r:id="rId22" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=av"/>
+    <hyperlink ref="A13" r:id="rId23" tooltip="Avestan language" display="https://en.wikipedia.org/wiki/Avestan_language"/>
+    <hyperlink ref="B13" r:id="rId24" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ae"/>
+    <hyperlink ref="A14" r:id="rId25" tooltip="Aymara language" display="https://en.wikipedia.org/wiki/Aymara_language"/>
+    <hyperlink ref="B14" r:id="rId26" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ay"/>
+    <hyperlink ref="A15" r:id="rId27" tooltip="Azerbaijani language" display="https://en.wikipedia.org/wiki/Azerbaijani_language"/>
+    <hyperlink ref="B15" r:id="rId28" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=az"/>
+    <hyperlink ref="A17" r:id="rId29" tooltip="Bambara language" display="https://en.wikipedia.org/wiki/Bambara_language"/>
+    <hyperlink ref="B17" r:id="rId30" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=bm"/>
+    <hyperlink ref="A18" r:id="rId31" tooltip="Bashkir language" display="https://en.wikipedia.org/wiki/Bashkir_language"/>
+    <hyperlink ref="B18" r:id="rId32" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ba"/>
+    <hyperlink ref="A19" r:id="rId33" tooltip="Basque language" display="https://en.wikipedia.org/wiki/Basque_language"/>
+    <hyperlink ref="B19" r:id="rId34" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=eu"/>
+    <hyperlink ref="A20" r:id="rId35" tooltip="Belarusian language" display="https://en.wikipedia.org/wiki/Belarusian_language"/>
+    <hyperlink ref="B20" r:id="rId36" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=be"/>
+    <hyperlink ref="A21" r:id="rId37" tooltip="Bengali language" display="https://en.wikipedia.org/wiki/Bengali_language"/>
+    <hyperlink ref="B21" r:id="rId38" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=bn"/>
+    <hyperlink ref="A22" r:id="rId39" tooltip="Bislama language" display="https://en.wikipedia.org/wiki/Bislama_language"/>
+    <hyperlink ref="B22" r:id="rId40" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=bi"/>
+    <hyperlink ref="A23" r:id="rId41" tooltip="Bosnian language" display="https://en.wikipedia.org/wiki/Bosnian_language"/>
+    <hyperlink ref="B23" r:id="rId42" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=bs"/>
+    <hyperlink ref="A24" r:id="rId43" tooltip="Breton language" display="https://en.wikipedia.org/wiki/Breton_language"/>
+    <hyperlink ref="B24" r:id="rId44" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=br"/>
+    <hyperlink ref="A25" r:id="rId45" tooltip="Bulgarian language" display="https://en.wikipedia.org/wiki/Bulgarian_language"/>
+    <hyperlink ref="B25" r:id="rId46" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=bg"/>
+    <hyperlink ref="A26" r:id="rId47" tooltip="Burmese language" display="https://en.wikipedia.org/wiki/Burmese_language"/>
+    <hyperlink ref="B26" r:id="rId48" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=my"/>
+    <hyperlink ref="A27" r:id="rId49" tooltip="Catalan language" display="https://en.wikipedia.org/wiki/Catalan_language"/>
+    <hyperlink ref="B27" r:id="rId50" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ca"/>
+    <hyperlink ref="A28" r:id="rId51" tooltip="Chamorro language" display="https://en.wikipedia.org/wiki/Chamorro_language"/>
+    <hyperlink ref="B28" r:id="rId52" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ch"/>
+    <hyperlink ref="A29" r:id="rId53" tooltip="Chechen language" display="https://en.wikipedia.org/wiki/Chechen_language"/>
+    <hyperlink ref="B29" r:id="rId54" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ce"/>
+    <hyperlink ref="A30" r:id="rId55" tooltip="Chichewa language" display="https://en.wikipedia.org/wiki/Chichewa_language"/>
+    <hyperlink ref="B30" r:id="rId56" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ny"/>
+    <hyperlink ref="A31" r:id="rId57" tooltip="Chinese language" display="https://en.wikipedia.org/wiki/Chinese_language"/>
+    <hyperlink ref="B31" r:id="rId58" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=zh"/>
+    <hyperlink ref="A32" r:id="rId59" tooltip="Chuvash language" display="https://en.wikipedia.org/wiki/Chuvash_language"/>
+    <hyperlink ref="B32" r:id="rId60" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=cv"/>
+    <hyperlink ref="A33" r:id="rId61" tooltip="Cornish language" display="https://en.wikipedia.org/wiki/Cornish_language"/>
+    <hyperlink ref="B33" r:id="rId62" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kw"/>
+    <hyperlink ref="A34" r:id="rId63" tooltip="Corsican language" display="https://en.wikipedia.org/wiki/Corsican_language"/>
+    <hyperlink ref="B34" r:id="rId64" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=co"/>
+    <hyperlink ref="A35" r:id="rId65" tooltip="Cree language" display="https://en.wikipedia.org/wiki/Cree_language"/>
+    <hyperlink ref="B35" r:id="rId66" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=cr"/>
+    <hyperlink ref="A36" r:id="rId67" tooltip="Croatian language" display="https://en.wikipedia.org/wiki/Croatian_language"/>
+    <hyperlink ref="B36" r:id="rId68" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=hr"/>
+    <hyperlink ref="A37" r:id="rId69" tooltip="Czech language" display="https://en.wikipedia.org/wiki/Czech_language"/>
+    <hyperlink ref="B37" r:id="rId70" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=cs"/>
+    <hyperlink ref="A38" r:id="rId71" tooltip="Danish language" display="https://en.wikipedia.org/wiki/Danish_language"/>
+    <hyperlink ref="B38" r:id="rId72" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=da"/>
+    <hyperlink ref="A39" r:id="rId73" tooltip="Dhivehi language" display="https://en.wikipedia.org/wiki/Dhivehi_language"/>
+    <hyperlink ref="B39" r:id="rId74" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=dv"/>
+    <hyperlink ref="B40" r:id="rId75" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=nl"/>
+    <hyperlink ref="A41" r:id="rId76" tooltip="Dzongkha language" display="https://en.wikipedia.org/wiki/Dzongkha_language"/>
+    <hyperlink ref="B41" r:id="rId77" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=dz"/>
+    <hyperlink ref="A42" r:id="rId78" tooltip="English language" display="https://en.wikipedia.org/wiki/English_language"/>
+    <hyperlink ref="B42" r:id="rId79" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=en"/>
+    <hyperlink ref="A43" r:id="rId80" tooltip="Esperanto" display="https://en.wikipedia.org/wiki/Esperanto"/>
+    <hyperlink ref="B43" r:id="rId81" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=eo"/>
+    <hyperlink ref="A44" r:id="rId82" tooltip="Estonian language" display="https://en.wikipedia.org/wiki/Estonian_language"/>
+    <hyperlink ref="B44" r:id="rId83" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=et"/>
+    <hyperlink ref="A45" r:id="rId84" tooltip="Ewe language" display="https://en.wikipedia.org/wiki/Ewe_language"/>
+    <hyperlink ref="B45" r:id="rId85" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ee"/>
+    <hyperlink ref="A46" r:id="rId86" tooltip="Faroese language" display="https://en.wikipedia.org/wiki/Faroese_language"/>
+    <hyperlink ref="B46" r:id="rId87" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=fo"/>
+    <hyperlink ref="A47" r:id="rId88" tooltip="Fijian language" display="https://en.wikipedia.org/wiki/Fijian_language"/>
+    <hyperlink ref="B47" r:id="rId89" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=fj"/>
+    <hyperlink ref="A48" r:id="rId90" tooltip="Finnish language" display="https://en.wikipedia.org/wiki/Finnish_language"/>
+    <hyperlink ref="B48" r:id="rId91" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=fi"/>
+    <hyperlink ref="A49" r:id="rId92" tooltip="French language" display="https://en.wikipedia.org/wiki/French_language"/>
+    <hyperlink ref="B49" r:id="rId93" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=fr"/>
+    <hyperlink ref="A50" r:id="rId94" tooltip="Fulah language" display="https://en.wikipedia.org/wiki/Fulah_language"/>
+    <hyperlink ref="B50" r:id="rId95" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ff"/>
+    <hyperlink ref="A51" r:id="rId96" tooltip="Galician language" display="https://en.wikipedia.org/wiki/Galician_language"/>
+    <hyperlink ref="B51" r:id="rId97" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=gl"/>
+    <hyperlink ref="A52" r:id="rId98" tooltip="Georgian language" display="https://en.wikipedia.org/wiki/Georgian_language"/>
+    <hyperlink ref="B52" r:id="rId99" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ka"/>
+    <hyperlink ref="A53" r:id="rId100" tooltip="German language" display="https://en.wikipedia.org/wiki/German_language"/>
+    <hyperlink ref="B53" r:id="rId101" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=de"/>
+    <hyperlink ref="A54" r:id="rId102" tooltip="Greek language" display="https://en.wikipedia.org/wiki/Greek_language"/>
+    <hyperlink ref="B54" r:id="rId103" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=el"/>
+    <hyperlink ref="A55" r:id="rId104" tooltip="Guarani language" display="https://en.wikipedia.org/wiki/Guarani_language"/>
+    <hyperlink ref="B55" r:id="rId105" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=gn"/>
+    <hyperlink ref="A56" r:id="rId106" tooltip="Gujarati language" display="https://en.wikipedia.org/wiki/Gujarati_language"/>
+    <hyperlink ref="B56" r:id="rId107" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=gu"/>
+    <hyperlink ref="A57" r:id="rId108" tooltip="Haitian Creole language" display="https://en.wikipedia.org/wiki/Haitian_Creole_language"/>
+    <hyperlink ref="B57" r:id="rId109" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ht"/>
+    <hyperlink ref="A58" r:id="rId110" tooltip="Hausa language" display="https://en.wikipedia.org/wiki/Hausa_language"/>
+    <hyperlink ref="B58" r:id="rId111" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ha"/>
+    <hyperlink ref="A59" r:id="rId112" tooltip="Hebrew language" display="https://en.wikipedia.org/wiki/Hebrew_language"/>
+    <hyperlink ref="B59" r:id="rId113" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=he"/>
+    <hyperlink ref="A60" r:id="rId114" tooltip="Herero language" display="https://en.wikipedia.org/wiki/Herero_language"/>
+    <hyperlink ref="B60" r:id="rId115" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=hz"/>
+    <hyperlink ref="A61" r:id="rId116" tooltip="Hindi" display="https://en.wikipedia.org/wiki/Hindi"/>
+    <hyperlink ref="B61" r:id="rId117" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=hi"/>
+    <hyperlink ref="A62" r:id="rId118" tooltip="Hiri Motu language" display="https://en.wikipedia.org/wiki/Hiri_Motu_language"/>
+    <hyperlink ref="B62" r:id="rId119" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ho"/>
+    <hyperlink ref="A63" r:id="rId120" tooltip="Hungarian language" display="https://en.wikipedia.org/wiki/Hungarian_language"/>
+    <hyperlink ref="B63" r:id="rId121" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=hu"/>
+    <hyperlink ref="A64" r:id="rId122" tooltip="Interlingua" display="https://en.wikipedia.org/wiki/Interlingua"/>
+    <hyperlink ref="B64" r:id="rId123" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ia"/>
+    <hyperlink ref="A65" r:id="rId124" tooltip="Indonesian language" display="https://en.wikipedia.org/wiki/Indonesian_language"/>
+    <hyperlink ref="B65" r:id="rId125" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=id"/>
+    <hyperlink ref="A66" r:id="rId126" tooltip="Interlingue" display="https://en.wikipedia.org/wiki/Interlingue"/>
+    <hyperlink ref="B66" r:id="rId127" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ie"/>
+    <hyperlink ref="A67" r:id="rId128" tooltip="Irish language" display="https://en.wikipedia.org/wiki/Irish_language"/>
+    <hyperlink ref="B67" r:id="rId129" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ga"/>
+    <hyperlink ref="A68" r:id="rId130" tooltip="Igbo language" display="https://en.wikipedia.org/wiki/Igbo_language"/>
+    <hyperlink ref="B68" r:id="rId131" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ig"/>
+    <hyperlink ref="A69" r:id="rId132" tooltip="Inupiaq language" display="https://en.wikipedia.org/wiki/Inupiaq_language"/>
+    <hyperlink ref="B69" r:id="rId133" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ik"/>
+    <hyperlink ref="A70" r:id="rId134" tooltip="Ido (language)" display="https://en.wikipedia.org/wiki/Ido_(language)"/>
+    <hyperlink ref="B70" r:id="rId135" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=io"/>
+    <hyperlink ref="A71" r:id="rId136" tooltip="Icelandic language" display="https://en.wikipedia.org/wiki/Icelandic_language"/>
+    <hyperlink ref="B71" r:id="rId137" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=is"/>
+    <hyperlink ref="A72" r:id="rId138" tooltip="Italian language" display="https://en.wikipedia.org/wiki/Italian_language"/>
+    <hyperlink ref="B72" r:id="rId139" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=it"/>
+    <hyperlink ref="A73" r:id="rId140" tooltip="Inuktitut" display="https://en.wikipedia.org/wiki/Inuktitut"/>
+    <hyperlink ref="B73" r:id="rId141" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=iu"/>
+    <hyperlink ref="A74" r:id="rId142" tooltip="Japanese language" display="https://en.wikipedia.org/wiki/Japanese_language"/>
+    <hyperlink ref="B74" r:id="rId143" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ja"/>
+    <hyperlink ref="A75" r:id="rId144" tooltip="Javanese language" display="https://en.wikipedia.org/wiki/Javanese_language"/>
+    <hyperlink ref="B75" r:id="rId145" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=jv"/>
+    <hyperlink ref="A76" r:id="rId146" tooltip="Greenlandic language" display="https://en.wikipedia.org/wiki/Greenlandic_language"/>
+    <hyperlink ref="B76" r:id="rId147" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kl"/>
+    <hyperlink ref="A77" r:id="rId148" tooltip="Kannada language" display="https://en.wikipedia.org/wiki/Kannada_language"/>
+    <hyperlink ref="B77" r:id="rId149" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kn"/>
+    <hyperlink ref="A78" r:id="rId150" tooltip="Kanuri language" display="https://en.wikipedia.org/wiki/Kanuri_language"/>
+    <hyperlink ref="B78" r:id="rId151" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kr"/>
+    <hyperlink ref="A79" r:id="rId152" tooltip="Kashmiri language" display="https://en.wikipedia.org/wiki/Kashmiri_language"/>
+    <hyperlink ref="B79" r:id="rId153" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ks"/>
+    <hyperlink ref="A80" r:id="rId154" tooltip="Kazakh language" display="https://en.wikipedia.org/wiki/Kazakh_language"/>
+    <hyperlink ref="B80" r:id="rId155" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kk"/>
+    <hyperlink ref="A81" r:id="rId156" tooltip="Central Khmer language" display="https://en.wikipedia.org/wiki/Central_Khmer_language"/>
+    <hyperlink ref="B81" r:id="rId157" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=km"/>
+    <hyperlink ref="A82" r:id="rId158" tooltip="Gikuyu language" display="https://en.wikipedia.org/wiki/Gikuyu_language"/>
+    <hyperlink ref="B82" r:id="rId159" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ki"/>
+    <hyperlink ref="A83" r:id="rId160" tooltip="Kinyarwanda" display="https://en.wikipedia.org/wiki/Kinyarwanda"/>
+    <hyperlink ref="B83" r:id="rId161" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=rw"/>
+    <hyperlink ref="A84" r:id="rId162" tooltip="Kirghiz language" display="https://en.wikipedia.org/wiki/Kirghiz_language"/>
+    <hyperlink ref="B84" r:id="rId163" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ky"/>
+    <hyperlink ref="A85" r:id="rId164" tooltip="Komi language" display="https://en.wikipedia.org/wiki/Komi_language"/>
+    <hyperlink ref="B85" r:id="rId165" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kv"/>
+    <hyperlink ref="A86" r:id="rId166" tooltip="Kongo language" display="https://en.wikipedia.org/wiki/Kongo_language"/>
+    <hyperlink ref="B86" r:id="rId167" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kg"/>
+    <hyperlink ref="A87" r:id="rId168" tooltip="Korean language" display="https://en.wikipedia.org/wiki/Korean_language"/>
+    <hyperlink ref="B87" r:id="rId169" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ko"/>
+    <hyperlink ref="A88" r:id="rId170" tooltip="Kurdish language" display="https://en.wikipedia.org/wiki/Kurdish_language"/>
+    <hyperlink ref="B88" r:id="rId171" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ku"/>
+    <hyperlink ref="A89" r:id="rId172" tooltip="Kuanyama language" display="https://en.wikipedia.org/wiki/Kuanyama_language"/>
+    <hyperlink ref="B89" r:id="rId173" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=kj"/>
+    <hyperlink ref="A90" r:id="rId174" tooltip="Latin" display="https://en.wikipedia.org/wiki/Latin"/>
+    <hyperlink ref="B90" r:id="rId175" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=la"/>
+    <hyperlink ref="A91" r:id="rId176" tooltip="Luxembourgish language" display="https://en.wikipedia.org/wiki/Luxembourgish_language"/>
+    <hyperlink ref="B91" r:id="rId177" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=lb"/>
+    <hyperlink ref="A92" r:id="rId178" tooltip="Ganda language" display="https://en.wikipedia.org/wiki/Ganda_language"/>
+    <hyperlink ref="B92" r:id="rId179" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=lg"/>
+    <hyperlink ref="A93" r:id="rId180" tooltip="Limburgan language" display="https://en.wikipedia.org/wiki/Limburgan_language"/>
+    <hyperlink ref="B93" r:id="rId181" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=li"/>
+    <hyperlink ref="A94" r:id="rId182" tooltip="Lingala language" display="https://en.wikipedia.org/wiki/Lingala_language"/>
+    <hyperlink ref="B94" r:id="rId183" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ln"/>
+    <hyperlink ref="A95" r:id="rId184" tooltip="Lao language" display="https://en.wikipedia.org/wiki/Lao_language"/>
+    <hyperlink ref="B95" r:id="rId185" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=lo"/>
+    <hyperlink ref="A96" r:id="rId186" tooltip="Lithuanian language" display="https://en.wikipedia.org/wiki/Lithuanian_language"/>
+    <hyperlink ref="B96" r:id="rId187" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=lt"/>
+    <hyperlink ref="A97" r:id="rId188" tooltip="Luba-Katanga language" display="https://en.wikipedia.org/wiki/Luba-Katanga_language"/>
+    <hyperlink ref="B97" r:id="rId189" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=lu"/>
+    <hyperlink ref="A98" r:id="rId190" tooltip="Latvian language" display="https://en.wikipedia.org/wiki/Latvian_language"/>
+    <hyperlink ref="B98" r:id="rId191" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=lv"/>
+    <hyperlink ref="A99" r:id="rId192" tooltip="Manx language" display="https://en.wikipedia.org/wiki/Manx_language"/>
+    <hyperlink ref="B99" r:id="rId193" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=gv"/>
+    <hyperlink ref="A100" r:id="rId194" tooltip="Macedonian language" display="https://en.wikipedia.org/wiki/Macedonian_language"/>
+    <hyperlink ref="B100" r:id="rId195" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mk"/>
+    <hyperlink ref="A101" r:id="rId196" tooltip="Malagasy language" display="https://en.wikipedia.org/wiki/Malagasy_language"/>
+    <hyperlink ref="B101" r:id="rId197" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mg"/>
+    <hyperlink ref="A102" r:id="rId198" tooltip="Malay language" display="https://en.wikipedia.org/wiki/Malay_language"/>
+    <hyperlink ref="B102" r:id="rId199" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ms"/>
+    <hyperlink ref="A103" r:id="rId200" tooltip="Malayalam language" display="https://en.wikipedia.org/wiki/Malayalam_language"/>
+    <hyperlink ref="B103" r:id="rId201" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ml"/>
+    <hyperlink ref="A104" r:id="rId202" tooltip="Maltese language" display="https://en.wikipedia.org/wiki/Maltese_language"/>
+    <hyperlink ref="B104" r:id="rId203" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mt"/>
+    <hyperlink ref="A105" r:id="rId204" tooltip="Māori language" display="https://en.wikipedia.org/wiki/M%C4%81ori_language"/>
+    <hyperlink ref="B105" r:id="rId205" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mi"/>
+    <hyperlink ref="A106" r:id="rId206" tooltip="Marathi language" display="https://en.wikipedia.org/wiki/Marathi_language"/>
+    <hyperlink ref="B106" r:id="rId207" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mr"/>
+    <hyperlink ref="A107" r:id="rId208" tooltip="Marshallese language" display="https://en.wikipedia.org/wiki/Marshallese_language"/>
+    <hyperlink ref="B107" r:id="rId209" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mh"/>
+    <hyperlink ref="A108" r:id="rId210" tooltip="Mongolian language" display="https://en.wikipedia.org/wiki/Mongolian_language"/>
+    <hyperlink ref="B108" r:id="rId211" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=mn"/>
+    <hyperlink ref="A109" r:id="rId212" tooltip="Nauru language" display="https://en.wikipedia.org/wiki/Nauru_language"/>
+    <hyperlink ref="B109" r:id="rId213" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=na"/>
+    <hyperlink ref="A110" r:id="rId214" tooltip="Navajo language" display="https://en.wikipedia.org/wiki/Navajo_language"/>
+    <hyperlink ref="B110" r:id="rId215" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=nv"/>
+    <hyperlink ref="A111" r:id="rId216" tooltip="North Ndebele language" display="https://en.wikipedia.org/wiki/North_Ndebele_language"/>
+    <hyperlink ref="B111" r:id="rId217" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=nd"/>
+    <hyperlink ref="A112" r:id="rId218" tooltip="Nepali language" display="https://en.wikipedia.org/wiki/Nepali_language"/>
+    <hyperlink ref="B112" r:id="rId219" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ne"/>
+    <hyperlink ref="A113" r:id="rId220" tooltip="Ndonga" display="https://en.wikipedia.org/wiki/Ndonga"/>
+    <hyperlink ref="B113" r:id="rId221" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ng"/>
+    <hyperlink ref="A114" r:id="rId222" tooltip="Bokmål" display="https://en.wikipedia.org/wiki/Bokm%C3%A5l"/>
+    <hyperlink ref="B114" r:id="rId223" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=nb"/>
+    <hyperlink ref="A115" r:id="rId224" tooltip="Nynorsk" display="https://en.wikipedia.org/wiki/Nynorsk"/>
+    <hyperlink ref="B115" r:id="rId225" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=nn"/>
+    <hyperlink ref="A116" r:id="rId226" tooltip="Norwegian language" display="https://en.wikipedia.org/wiki/Norwegian_language"/>
+    <hyperlink ref="B116" r:id="rId227" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=no"/>
+    <hyperlink ref="A117" r:id="rId228" tooltip="Sichuan Yi language" display="https://en.wikipedia.org/wiki/Sichuan_Yi_language"/>
+    <hyperlink ref="B117" r:id="rId229" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ii"/>
+    <hyperlink ref="A118" r:id="rId230" tooltip="South Ndebele language" display="https://en.wikipedia.org/wiki/South_Ndebele_language"/>
+    <hyperlink ref="B118" r:id="rId231" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=nr"/>
+    <hyperlink ref="A119" r:id="rId232" tooltip="Occitan language" display="https://en.wikipedia.org/wiki/Occitan_language"/>
+    <hyperlink ref="B119" r:id="rId233" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=oc"/>
+    <hyperlink ref="A120" r:id="rId234" tooltip="Ojibwa language" display="https://en.wikipedia.org/wiki/Ojibwa_language"/>
+    <hyperlink ref="B120" r:id="rId235" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=oj"/>
+    <hyperlink ref="B121" r:id="rId236" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=cu"/>
+    <hyperlink ref="A122" r:id="rId237" tooltip="Oromo language" display="https://en.wikipedia.org/wiki/Oromo_language"/>
+    <hyperlink ref="B122" r:id="rId238" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=om"/>
+    <hyperlink ref="A123" r:id="rId239" tooltip="Oriya language" display="https://en.wikipedia.org/wiki/Oriya_language"/>
+    <hyperlink ref="B123" r:id="rId240" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=or"/>
+    <hyperlink ref="A124" r:id="rId241" tooltip="Ossetian language" display="https://en.wikipedia.org/wiki/Ossetian_language"/>
+    <hyperlink ref="B124" r:id="rId242" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=os"/>
+    <hyperlink ref="A125" r:id="rId243" tooltip="Punjabi language" display="https://en.wikipedia.org/wiki/Punjabi_language"/>
+    <hyperlink ref="B125" r:id="rId244" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=pa"/>
+    <hyperlink ref="A126" r:id="rId245" tooltip="Pali language" display="https://en.wikipedia.org/wiki/Pali_language"/>
+    <hyperlink ref="B126" r:id="rId246" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=pi"/>
+    <hyperlink ref="A127" r:id="rId247" tooltip="Persian language" display="https://en.wikipedia.org/wiki/Persian_language"/>
+    <hyperlink ref="B127" r:id="rId248" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=fa"/>
+    <hyperlink ref="A128" r:id="rId249" tooltip="Polish language" display="https://en.wikipedia.org/wiki/Polish_language"/>
+    <hyperlink ref="B128" r:id="rId250" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=pl"/>
+    <hyperlink ref="A129" r:id="rId251" tooltip="Pashto language" display="https://en.wikipedia.org/wiki/Pashto_language"/>
+    <hyperlink ref="B129" r:id="rId252" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ps"/>
+    <hyperlink ref="A130" r:id="rId253" tooltip="Portuguese language" display="https://en.wikipedia.org/wiki/Portuguese_language"/>
+    <hyperlink ref="B130" r:id="rId254" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=pt"/>
+    <hyperlink ref="A131" r:id="rId255" tooltip="Quechua language" display="https://en.wikipedia.org/wiki/Quechua_language"/>
+    <hyperlink ref="B131" r:id="rId256" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=qu"/>
+    <hyperlink ref="A132" r:id="rId257" tooltip="Romansh language" display="https://en.wikipedia.org/wiki/Romansh_language"/>
+    <hyperlink ref="B132" r:id="rId258" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=rm"/>
+    <hyperlink ref="A133" r:id="rId259" tooltip="Rundi language" display="https://en.wikipedia.org/wiki/Rundi_language"/>
+    <hyperlink ref="B133" r:id="rId260" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=rn"/>
+    <hyperlink ref="A134" r:id="rId261" tooltip="Romanian language" display="https://en.wikipedia.org/wiki/Romanian_language"/>
+    <hyperlink ref="B134" r:id="rId262" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ro"/>
+    <hyperlink ref="A135" r:id="rId263" tooltip="Russian language" display="https://en.wikipedia.org/wiki/Russian_language"/>
+    <hyperlink ref="B135" r:id="rId264" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ru"/>
+    <hyperlink ref="A136" r:id="rId265" tooltip="Sanskrit" display="https://en.wikipedia.org/wiki/Sanskrit"/>
+    <hyperlink ref="B136" r:id="rId266" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sa"/>
+    <hyperlink ref="A137" r:id="rId267" tooltip="Sardinian language" display="https://en.wikipedia.org/wiki/Sardinian_language"/>
+    <hyperlink ref="B137" r:id="rId268" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sc"/>
+    <hyperlink ref="A138" r:id="rId269" tooltip="Sindhi language" display="https://en.wikipedia.org/wiki/Sindhi_language"/>
+    <hyperlink ref="B138" r:id="rId270" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sd"/>
+    <hyperlink ref="A139" r:id="rId271" tooltip="Northern Sami" display="https://en.wikipedia.org/wiki/Northern_Sami"/>
+    <hyperlink ref="B139" r:id="rId272" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=se"/>
+    <hyperlink ref="A140" r:id="rId273" tooltip="Samoan language" display="https://en.wikipedia.org/wiki/Samoan_language"/>
+    <hyperlink ref="B140" r:id="rId274" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sm"/>
+    <hyperlink ref="A141" r:id="rId275" tooltip="Sango language" display="https://en.wikipedia.org/wiki/Sango_language"/>
+    <hyperlink ref="B141" r:id="rId276" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sg"/>
+    <hyperlink ref="A142" r:id="rId277" tooltip="Serbian language" display="https://en.wikipedia.org/wiki/Serbian_language"/>
+    <hyperlink ref="B142" r:id="rId278" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sr"/>
+    <hyperlink ref="A143" r:id="rId279" tooltip="Scottish Gaelic" display="https://en.wikipedia.org/wiki/Scottish_Gaelic"/>
+    <hyperlink ref="B143" r:id="rId280" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=gd"/>
+    <hyperlink ref="A144" r:id="rId281" tooltip="Shona language" display="https://en.wikipedia.org/wiki/Shona_language"/>
+    <hyperlink ref="B144" r:id="rId282" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sn"/>
+    <hyperlink ref="A145" r:id="rId283" tooltip="Sinhala language" display="https://en.wikipedia.org/wiki/Sinhala_language"/>
+    <hyperlink ref="B145" r:id="rId284" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=si"/>
+    <hyperlink ref="A146" r:id="rId285" tooltip="Slovak language" display="https://en.wikipedia.org/wiki/Slovak_language"/>
+    <hyperlink ref="B146" r:id="rId286" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sk"/>
+    <hyperlink ref="A147" r:id="rId287" tooltip="Slovene language" display="https://en.wikipedia.org/wiki/Slovene_language"/>
+    <hyperlink ref="B147" r:id="rId288" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sl"/>
+    <hyperlink ref="A148" r:id="rId289" tooltip="Somali language" display="https://en.wikipedia.org/wiki/Somali_language"/>
+    <hyperlink ref="B148" r:id="rId290" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=so"/>
+    <hyperlink ref="A149" r:id="rId291" tooltip="Sotho language" display="https://en.wikipedia.org/wiki/Sotho_language"/>
+    <hyperlink ref="B149" r:id="rId292" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=st"/>
+    <hyperlink ref="A150" r:id="rId293" tooltip="Spanish language" display="https://en.wikipedia.org/wiki/Spanish_language"/>
+    <hyperlink ref="B150" r:id="rId294" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=es"/>
+    <hyperlink ref="A151" r:id="rId295" tooltip="Sundanese language" display="https://en.wikipedia.org/wiki/Sundanese_language"/>
+    <hyperlink ref="B151" r:id="rId296" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=su"/>
+    <hyperlink ref="A152" r:id="rId297" tooltip="Swahili language" display="https://en.wikipedia.org/wiki/Swahili_language"/>
+    <hyperlink ref="B152" r:id="rId298" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sw"/>
+    <hyperlink ref="A153" r:id="rId299" tooltip="Swati language" display="https://en.wikipedia.org/wiki/Swati_language"/>
+    <hyperlink ref="B153" r:id="rId300" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ss"/>
+    <hyperlink ref="A154" r:id="rId301" tooltip="Swedish language" display="https://en.wikipedia.org/wiki/Swedish_language"/>
+    <hyperlink ref="B154" r:id="rId302" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=sv"/>
+    <hyperlink ref="A155" r:id="rId303" tooltip="Tamil language" display="https://en.wikipedia.org/wiki/Tamil_language"/>
+    <hyperlink ref="B155" r:id="rId304" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ta"/>
+    <hyperlink ref="A156" r:id="rId305" tooltip="Telugu language" display="https://en.wikipedia.org/wiki/Telugu_language"/>
+    <hyperlink ref="B156" r:id="rId306" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=te"/>
+    <hyperlink ref="A157" r:id="rId307" tooltip="Tajik language" display="https://en.wikipedia.org/wiki/Tajik_language"/>
+    <hyperlink ref="B157" r:id="rId308" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tg"/>
+    <hyperlink ref="A158" r:id="rId309" tooltip="Thai language" display="https://en.wikipedia.org/wiki/Thai_language"/>
+    <hyperlink ref="B158" r:id="rId310" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=th"/>
+    <hyperlink ref="A159" r:id="rId311" tooltip="Tigrinya language" display="https://en.wikipedia.org/wiki/Tigrinya_language"/>
+    <hyperlink ref="B159" r:id="rId312" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ti"/>
+    <hyperlink ref="A160" r:id="rId313" tooltip="Standard Tibetan" display="https://en.wikipedia.org/wiki/Standard_Tibetan"/>
+    <hyperlink ref="B160" r:id="rId314" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=bo"/>
+    <hyperlink ref="A161" r:id="rId315" tooltip="Turkmen language" display="https://en.wikipedia.org/wiki/Turkmen_language"/>
+    <hyperlink ref="B161" r:id="rId316" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tk"/>
+    <hyperlink ref="A162" r:id="rId317" tooltip="Tagalog language" display="https://en.wikipedia.org/wiki/Tagalog_language"/>
+    <hyperlink ref="B162" r:id="rId318" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tl"/>
+    <hyperlink ref="A163" r:id="rId319" tooltip="Tswana language" display="https://en.wikipedia.org/wiki/Tswana_language"/>
+    <hyperlink ref="B163" r:id="rId320" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tn"/>
+    <hyperlink ref="A164" r:id="rId321" tooltip="Tongan language" display="https://en.wikipedia.org/wiki/Tongan_language"/>
+    <hyperlink ref="B164" r:id="rId322" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=to"/>
+    <hyperlink ref="A165" r:id="rId323" tooltip="Turkish language" display="https://en.wikipedia.org/wiki/Turkish_language"/>
+    <hyperlink ref="B165" r:id="rId324" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tr"/>
+    <hyperlink ref="A166" r:id="rId325" tooltip="Tsonga language" display="https://en.wikipedia.org/wiki/Tsonga_language"/>
+    <hyperlink ref="B166" r:id="rId326" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ts"/>
+    <hyperlink ref="A167" r:id="rId327" tooltip="Tatar language" display="https://en.wikipedia.org/wiki/Tatar_language"/>
+    <hyperlink ref="B167" r:id="rId328" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tt"/>
+    <hyperlink ref="A168" r:id="rId329" tooltip="Twi" display="https://en.wikipedia.org/wiki/Twi"/>
+    <hyperlink ref="B168" r:id="rId330" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=tw"/>
+    <hyperlink ref="A169" r:id="rId331" tooltip="Tahitian language" display="https://en.wikipedia.org/wiki/Tahitian_language"/>
+    <hyperlink ref="B169" r:id="rId332" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ty"/>
+    <hyperlink ref="A170" r:id="rId333" tooltip="Uighur language" display="https://en.wikipedia.org/wiki/Uighur_language"/>
+    <hyperlink ref="B170" r:id="rId334" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ug"/>
+    <hyperlink ref="A171" r:id="rId335" tooltip="Ukrainian language" display="https://en.wikipedia.org/wiki/Ukrainian_language"/>
+    <hyperlink ref="B171" r:id="rId336" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=uk"/>
+    <hyperlink ref="A172" r:id="rId337" tooltip="Urdu" display="https://en.wikipedia.org/wiki/Urdu"/>
+    <hyperlink ref="B172" r:id="rId338" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ur"/>
+    <hyperlink ref="A173" r:id="rId339" tooltip="Uzbek language" display="https://en.wikipedia.org/wiki/Uzbek_language"/>
+    <hyperlink ref="B173" r:id="rId340" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=uz"/>
+    <hyperlink ref="A174" r:id="rId341" tooltip="Venda language" display="https://en.wikipedia.org/wiki/Venda_language"/>
+    <hyperlink ref="B174" r:id="rId342" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=ve"/>
+    <hyperlink ref="A175" r:id="rId343" tooltip="Vietnamese language" display="https://en.wikipedia.org/wiki/Vietnamese_language"/>
+    <hyperlink ref="B175" r:id="rId344" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=vi"/>
+    <hyperlink ref="A176" r:id="rId345" tooltip="Volapük" display="https://en.wikipedia.org/wiki/Volap%C3%BCk"/>
+    <hyperlink ref="B176" r:id="rId346" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=vo"/>
+    <hyperlink ref="A177" r:id="rId347" tooltip="Walloon language" display="https://en.wikipedia.org/wiki/Walloon_language"/>
+    <hyperlink ref="B177" r:id="rId348" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=wa"/>
+    <hyperlink ref="A178" r:id="rId349" tooltip="Welsh language" display="https://en.wikipedia.org/wiki/Welsh_language"/>
+    <hyperlink ref="B178" r:id="rId350" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=cy"/>
+    <hyperlink ref="A179" r:id="rId351" tooltip="Wolof language" display="https://en.wikipedia.org/wiki/Wolof_language"/>
+    <hyperlink ref="B179" r:id="rId352" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=wo"/>
+    <hyperlink ref="A180" r:id="rId353" tooltip="West Frisian language" display="https://en.wikipedia.org/wiki/West_Frisian_language"/>
+    <hyperlink ref="B180" r:id="rId354" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=fy"/>
+    <hyperlink ref="A181" r:id="rId355" tooltip="Xhosa language" display="https://en.wikipedia.org/wiki/Xhosa_language"/>
+    <hyperlink ref="B181" r:id="rId356" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=xh"/>
+    <hyperlink ref="A182" r:id="rId357" tooltip="Yiddish language" display="https://en.wikipedia.org/wiki/Yiddish_language"/>
+    <hyperlink ref="B182" r:id="rId358" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=yi"/>
+    <hyperlink ref="A183" r:id="rId359" tooltip="Yoruba language" display="https://en.wikipedia.org/wiki/Yoruba_language"/>
+    <hyperlink ref="B183" r:id="rId360" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=yo"/>
+    <hyperlink ref="A184" r:id="rId361" tooltip="Zhuang language" display="https://en.wikipedia.org/wiki/Zhuang_language"/>
+    <hyperlink ref="B184" r:id="rId362" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=za"/>
+    <hyperlink ref="A185" r:id="rId363" tooltip="Zulu language" display="https://en.wikipedia.org/wiki/Zulu_language"/>
+    <hyperlink ref="B185" r:id="rId364" display="https://www.loc.gov/standards/iso639-2/php/langcodes_name.php?iso_639_1=zu"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId365"/>
 </worksheet>
 </file>
 

--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="371">
   <si>
     <t>Afrikaans</t>
   </si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>ha</t>
-  </si>
-  <si>
-    <t>he</t>
   </si>
   <si>
     <t>Herero</t>
@@ -1637,7 +1634,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2068,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>26</v>
@@ -2537,20 +2534,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>140</v>
+      <c r="B59" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2563,10 +2560,10 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2579,26 +2576,26 @@
     </row>
     <row r="64" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2611,34 +2608,34 @@
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2651,10 +2648,10 @@
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2667,426 +2664,426 @@
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3099,50 +3096,50 @@
     </row>
     <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3155,146 +3152,146 @@
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3307,26 +3304,26 @@
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3339,50 +3336,50 @@
     </row>
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3395,42 +3392,42 @@
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3443,114 +3440,114 @@
     </row>
     <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
